--- a/MSCW.xlsx
+++ b/MSCW.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MSCW.xlsx
+++ b/MSCW.xlsx
@@ -214,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -283,6 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,7 +877,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
@@ -1068,7 +1075,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1"/>
@@ -1122,7 +1129,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="1"/>
@@ -1134,7 +1141,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="1"/>

--- a/MSCW.xlsx
+++ b/MSCW.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICT\block4\ProP-July-Morning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
   </bookViews>
@@ -186,8 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -280,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -290,6 +301,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +309,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +395,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +447,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,19 +640,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -626,7 +682,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -638,7 +694,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -650,7 +706,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -662,7 +718,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -674,7 +730,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -686,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -698,7 +754,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -710,7 +766,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -722,7 +778,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -734,7 +790,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -746,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -760,7 +816,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -768,7 +824,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -778,7 +834,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -790,7 +846,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -802,7 +858,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -814,7 +870,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -826,7 +882,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
@@ -834,7 +890,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
@@ -842,7 +898,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -852,7 +908,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -864,7 +920,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -876,7 +932,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -888,7 +944,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -900,7 +956,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -912,7 +968,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -920,7 +976,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -930,7 +986,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -942,7 +998,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -954,7 +1010,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -966,8 +1022,8 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="1"/>
@@ -978,8 +1034,8 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1"/>
@@ -990,7 +1046,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1058,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -1014,7 +1070,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1082,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -1038,8 +1094,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1"/>
@@ -1050,7 +1106,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -1062,8 +1118,8 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="1"/>
@@ -1074,7 +1130,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>38</v>
       </c>
@@ -1086,7 +1142,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
@@ -1098,7 +1154,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -1106,7 +1162,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -1116,8 +1172,8 @@
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="1"/>
@@ -1128,7 +1184,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1196,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1152,8 +1208,8 @@
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="1"/>
@@ -1164,7 +1220,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -1176,7 +1232,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1188,7 +1244,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
@@ -1196,7 +1252,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
@@ -1206,7 +1262,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>48</v>
       </c>
@@ -1218,7 +1274,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>49</v>
       </c>
@@ -1230,7 +1286,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>50</v>
       </c>
@@ -1242,7 +1298,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -1257,24 +1313,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
